--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>19.31549154628708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22.6378409340746</v>
+        <v>22.63784093407462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6750841156463131</v>
@@ -649,7 +649,7 @@
         <v>1.020570184758409</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.631036815287114</v>
+        <v>1.631036815287115</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.80628372093126</v>
+        <v>11.28088035289728</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.563918802069942</v>
+        <v>8.109377078722204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.59969017022446</v>
+        <v>12.17803960033279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.20161572489006</v>
+        <v>13.27386923395304</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4324113936985844</v>
+        <v>0.3889965245398195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3971171823063954</v>
+        <v>0.4392908243202462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5775267321034302</v>
+        <v>0.5691151732234353</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6747400675005744</v>
+        <v>0.6450668032111121</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.30434238810436</v>
+        <v>22.83795994500864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.90546108745425</v>
+        <v>19.57260822195023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.47947846173896</v>
+        <v>24.71606607553815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.41640322393395</v>
+        <v>31.1593229006399</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.051635649278484</v>
+        <v>1.030375300661692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.386758580604812</v>
+        <v>1.475011596137239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.565430675375121</v>
+        <v>1.54583513365931</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.000429259016484</v>
+        <v>3.204222740618978</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.427726550594268</v>
+        <v>3.082334758129291</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.701659593674712</v>
+        <v>3.741042106212842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.999166971059486</v>
+        <v>4.830307355657968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.356988030294782</v>
+        <v>-1.954710472524343</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06462599928154668</v>
+        <v>0.07791158306725329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1742891079685111</v>
+        <v>0.1759378615196099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1663616451221412</v>
+        <v>0.162010945641873</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06025837748011318</v>
+        <v>-0.05347402510524631</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.78593716318773</v>
+        <v>13.70300503945488</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.20777549626678</v>
+        <v>13.31754876572799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.83012009687997</v>
+        <v>15.43045565588136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.50006662611459</v>
+        <v>12.48637483720315</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4142988084172869</v>
+        <v>0.4140725130429652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7854602369951483</v>
+        <v>0.773643396197955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6706057292837063</v>
+        <v>0.6303155800567197</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4393517732632379</v>
+        <v>0.4371547083294161</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.242280962804875</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.166642021093731</v>
+        <v>4.166642021093741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005973968825317775</v>
@@ -849,7 +849,7 @@
         <v>-0.006914378005844848</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1174578812071365</v>
+        <v>0.1174578812071368</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.755790234754747</v>
+        <v>-5.570203048477114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.705655004072691</v>
+        <v>-1.489339108866157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.760248056296049</v>
+        <v>-5.578065145662267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.227842461854503</v>
+        <v>-0.9964518895875379</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1198558170564356</v>
+        <v>-0.1194963629955866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05996006100136172</v>
+        <v>-0.05573956341520729</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1527149192583223</v>
+        <v>-0.1488248515616334</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03144247324465356</v>
+        <v>-0.02544749832086407</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.083225786145528</v>
+        <v>5.622718730459014</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.605891303363277</v>
+        <v>7.971867801733737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.57044269498557</v>
+        <v>5.219097106110453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.329512845127406</v>
+        <v>9.339938171819332</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1479211098856645</v>
+        <v>0.1321309308060376</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3767994669850759</v>
+        <v>0.3466971679496545</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1426924799642007</v>
+        <v>0.1642555897629009</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2948614137860677</v>
+        <v>0.2888679312721921</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.1014982106858409</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4933553883365749</v>
+        <v>-0.493355388336586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1080051216948107</v>
@@ -949,7 +949,7 @@
         <v>-0.002650310052106785</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.01386395532398557</v>
+        <v>-0.01386395532398588</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.87163106054514</v>
+        <v>-11.7446354297108</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.978245031895158</v>
+        <v>-1.734471084736819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.883175679022159</v>
+        <v>-5.495623134658637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.450727547994929</v>
+        <v>-5.404887532680122</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2274765732811052</v>
+        <v>-0.2221288538149941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07482118935300142</v>
+        <v>-0.06381952673578088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1421664908032253</v>
+        <v>-0.1354643320521629</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.141918580705801</v>
+        <v>-0.1388514691927189</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7915805632717028</v>
+        <v>0.9453317832772999</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.924175295509231</v>
+        <v>9.170832812427793</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.346609745652818</v>
+        <v>5.234641946728168</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.990604013048881</v>
+        <v>3.884526894424969</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01701114826180462</v>
+        <v>0.01994598256313571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3938321764974893</v>
+        <v>0.4084870103021155</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1516444928334595</v>
+        <v>0.1461270795858945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1184379992096861</v>
+        <v>0.1201023518400357</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.288633606252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.05575988106349</v>
+        <v>-2.055759881063496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1317326133455033</v>
@@ -1049,7 +1049,7 @@
         <v>0.2876364105802718</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.05204381778730958</v>
+        <v>-0.05204381778730971</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.30963360893451</v>
+        <v>-14.07091025269882</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.209011250141966</v>
+        <v>-5.634680195491846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.979853622828464</v>
+        <v>3.644486939066125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.82047825702365</v>
+        <v>-7.150223429199436</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2456396135156333</v>
+        <v>-0.2628142337490421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1846382398117485</v>
+        <v>-0.1990152997139851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09958935408260738</v>
+        <v>0.09300639853381124</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1622571143711025</v>
+        <v>-0.1660785111251462</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6007525682243067</v>
+        <v>0.2024349130863854</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.452736337999074</v>
+        <v>6.636521263978762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.66505600910727</v>
+        <v>16.94075456352411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.976251282620165</v>
+        <v>2.577350538987631</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01253576192625283</v>
+        <v>0.004250433202182811</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3049970929754758</v>
+        <v>0.3130253274391567</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5068121058475451</v>
+        <v>0.533852171960803</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0786220591978973</v>
+        <v>0.07035094951408577</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.090910781238264</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.873364705019574</v>
+        <v>5.873364705019569</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2335954524424814</v>
@@ -1149,7 +1149,7 @@
         <v>0.2133303655494132</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1870807213556046</v>
+        <v>0.1870807213556044</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9049081365687208</v>
+        <v>1.157941461797541</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.398836720774187</v>
+        <v>4.052199791404775</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7290816271257373</v>
+        <v>0.1146143537418259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.901923645768082</v>
+        <v>0.638266577155099</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01908899914752171</v>
+        <v>0.01783363678732408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1320284151285115</v>
+        <v>0.1568810942253635</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01836107100209378</v>
+        <v>0.002821748444076265</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02563711382351372</v>
+        <v>0.01377037059850379</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.911356360065</v>
+        <v>16.67634734469326</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.23559295119151</v>
+        <v>18.87250393159199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.4865465688024</v>
+        <v>15.25332173041494</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.32427469868056</v>
+        <v>10.71683905029847</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4811429726054405</v>
+        <v>0.4739852855396219</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.051372357714637</v>
+        <v>1.06994374870711</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4654916458043486</v>
+        <v>0.4379106264805469</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4023290903145165</v>
+        <v>0.3675272557093494</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.654294456264584</v>
+        <v>2.471089528289379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.31798689610616</v>
+        <v>14.96841807060433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.383344318778782</v>
+        <v>9.861370078672167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.09669798871285</v>
+        <v>16.32660598196953</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05108347604030099</v>
+        <v>0.04299328222182526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4797348763346624</v>
+        <v>0.4654039788997365</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1708079828826412</v>
+        <v>0.185432076498187</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3539570884753437</v>
+        <v>0.353031521146624</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.53817340249777</v>
+        <v>20.54862374594567</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.54872833618439</v>
+        <v>32.11158467116427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.3274695703174</v>
+        <v>24.77987931573153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.8170140514694</v>
+        <v>27.47235719643493</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.454560018822924</v>
+        <v>0.4582773341008287</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.334825113214992</v>
+        <v>1.41141258539664</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5106274032343879</v>
+        <v>0.53811617515848</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7421520756034342</v>
+        <v>0.7286050957035951</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>8.904664107187804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.046258602336425</v>
+        <v>7.04625860233643</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1233556284741036</v>
@@ -1349,7 +1349,7 @@
         <v>0.263301517937805</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2106628863444961</v>
+        <v>0.2106628863444963</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.537974500717267</v>
+        <v>2.511172079898007</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.337953553800397</v>
+        <v>6.440207259462238</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.477642798160074</v>
+        <v>6.619494624744394</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.827758313235861</v>
+        <v>4.75571331446318</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05969502815604549</v>
+        <v>0.058159477412126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2665581558322717</v>
+        <v>0.2711324328847171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1847905290873009</v>
+        <v>0.1876736570513303</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1383600492069679</v>
+        <v>0.1363782803418179</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.490839391346045</v>
+        <v>7.566542392681431</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.73691333552974</v>
+        <v>10.69212447022219</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.21438201627286</v>
+        <v>11.30920737808366</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.28474385201544</v>
+        <v>9.229223922351599</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1871499532167874</v>
+        <v>0.1874608970976979</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4999485972017683</v>
+        <v>0.4945323495564208</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3456150192923582</v>
+        <v>0.3442342992097601</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2863613970255986</v>
+        <v>0.2875142521811306</v>
       </c>
     </row>
     <row r="28">
